--- a/doc/58条指令集译码分析.xlsx
+++ b/doc/58条指令集译码分析.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VIVADO_project\cpu_version1\cpu_version1.srcs\sources_1\Disjunctive.N.F\CPU version1 设计、控制与ALU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\龙芯杯\Disjunctive.N.F\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF17D14-457A-4F3B-9C24-3E2DE1D785F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C215491-C916-4750-8A90-8FC644F6AF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MIPS 不含除法自陷" sheetId="3" r:id="rId1"/>
+    <sheet name="version2整理自用" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MIPS 不含除法自陷'!$A$1:$V$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">version2整理自用!$A$1:$M$58</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="215">
   <si>
     <t>rs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1554,6 +1556,128 @@
   </si>
   <si>
     <t>clt_PC_mux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegDst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUSrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUOp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemRead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemToReg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALURes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem_rdata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>&lt;? 1: 0</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;16</t>
+  </si>
+  <si>
+    <t>~|</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>==? 1: 0</t>
+  </si>
+  <si>
+    <t>!=? 1: 0</t>
+  </si>
+  <si>
+    <t>&gt;=0? 1:0</t>
+  </si>
+  <si>
+    <t>&lt;0? 1:0</t>
+  </si>
+  <si>
+    <t>&gt;0? 1:0</t>
+  </si>
+  <si>
+    <t>&lt;=0? 1:0</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>llo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>srl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sltu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1698,7 +1822,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1734,11 +1858,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1845,11 +1980,231 @@
     <xf numFmtId="49" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2127,8 +2482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C7AE7C-0F00-4BF4-A219-B67673F38292}">
   <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2137,14 +2492,15 @@
     <col min="3" max="3" width="11.77734375" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.77734375" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" style="3" customWidth="1"/>
-    <col min="7" max="8" width="10.77734375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" style="5" customWidth="1"/>
     <col min="9" max="9" width="12.77734375" style="5" customWidth="1"/>
     <col min="10" max="10" width="20.77734375" style="5" customWidth="1"/>
     <col min="11" max="11" width="12.77734375" style="5" customWidth="1"/>
     <col min="12" max="12" width="10.77734375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" style="35" customWidth="1"/>
-    <col min="14" max="14" width="10.77734375" style="5" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" style="35" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="16" style="5" customWidth="1"/>
     <col min="16" max="21" width="10.77734375" style="3" customWidth="1"/>
     <col min="22" max="22" width="18.77734375" style="5" customWidth="1"/>
     <col min="23" max="16384" width="8.88671875" style="4"/>
@@ -5302,4 +5658,2341 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBCCB88-5967-4737-8EE6-61BE5B7108E0}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.77734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="3" customWidth="1"/>
+    <col min="7" max="13" width="9.77734375" style="37" customWidth="1"/>
+    <col min="14" max="14" width="15.5546875" style="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="N1" s="36"/>
+    </row>
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" s="37">
+        <v>0</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="K2" s="37">
+        <v>0</v>
+      </c>
+      <c r="L2" s="37">
+        <v>0</v>
+      </c>
+      <c r="M2" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>50</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="37">
+        <v>0</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="K3" s="37">
+        <v>0</v>
+      </c>
+      <c r="L3" s="37">
+        <v>1</v>
+      </c>
+      <c r="M3" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H4" s="37">
+        <v>0</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="K4" s="37">
+        <v>0</v>
+      </c>
+      <c r="L4" s="37">
+        <v>0</v>
+      </c>
+      <c r="M4" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>51</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="37">
+        <v>0</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="37">
+        <v>0</v>
+      </c>
+      <c r="L5" s="37">
+        <v>1</v>
+      </c>
+      <c r="M5" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>13</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H6" s="37">
+        <v>0</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="K6" s="37">
+        <v>0</v>
+      </c>
+      <c r="L6" s="37">
+        <v>0</v>
+      </c>
+      <c r="M6" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>11</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H7" s="37">
+        <v>0</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="K7" s="37">
+        <v>0</v>
+      </c>
+      <c r="L7" s="37">
+        <v>0</v>
+      </c>
+      <c r="M7" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>12</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8" s="37">
+        <v>0</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="K8" s="37">
+        <v>0</v>
+      </c>
+      <c r="L8" s="37">
+        <v>0</v>
+      </c>
+      <c r="M8" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>52</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="37">
+        <v>0</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="K9" s="37">
+        <v>0</v>
+      </c>
+      <c r="L9" s="37">
+        <v>1</v>
+      </c>
+      <c r="M9" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>19</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H10" s="37">
+        <v>0</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="37">
+        <v>0</v>
+      </c>
+      <c r="L10" s="37">
+        <v>0</v>
+      </c>
+      <c r="M10" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>53</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="37">
+        <v>0</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="K11" s="37">
+        <v>0</v>
+      </c>
+      <c r="L11" s="37">
+        <v>1</v>
+      </c>
+      <c r="M11" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>17</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H12" s="37">
+        <v>0</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="K12" s="37">
+        <v>0</v>
+      </c>
+      <c r="L12" s="37">
+        <v>0</v>
+      </c>
+      <c r="M12" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>16</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H13" s="37">
+        <v>0</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="K13" s="37">
+        <v>0</v>
+      </c>
+      <c r="L13" s="37">
+        <v>0</v>
+      </c>
+      <c r="M13" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>1</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H14" s="37">
+        <v>0</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="K14" s="37">
+        <v>0</v>
+      </c>
+      <c r="L14" s="37">
+        <v>0</v>
+      </c>
+      <c r="M14" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>54</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="37">
+        <v>0</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="K15" s="37">
+        <v>0</v>
+      </c>
+      <c r="L15" s="37">
+        <v>1</v>
+      </c>
+      <c r="M15" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>43</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="H16" s="37">
+        <v>1</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="K16" s="37">
+        <v>1</v>
+      </c>
+      <c r="L16" s="37">
+        <v>0</v>
+      </c>
+      <c r="M16" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>3</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" s="37">
+        <v>0</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="K17" s="37">
+        <v>0</v>
+      </c>
+      <c r="L17" s="37">
+        <v>0</v>
+      </c>
+      <c r="M17" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>39</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H18" s="37">
+        <v>0</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="K18" s="37">
+        <v>0</v>
+      </c>
+      <c r="L18" s="37">
+        <v>0</v>
+      </c>
+      <c r="M18" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>44</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="H19" s="37">
+        <v>1</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" s="37">
+        <v>1</v>
+      </c>
+      <c r="L19" s="37">
+        <v>0</v>
+      </c>
+      <c r="M19" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>40</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H20" s="37">
+        <v>0</v>
+      </c>
+      <c r="J20" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="K20" s="37">
+        <v>0</v>
+      </c>
+      <c r="L20" s="37">
+        <v>0</v>
+      </c>
+      <c r="M20" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>45</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="H21" s="37">
+        <v>1</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="K21" s="37">
+        <v>1</v>
+      </c>
+      <c r="L21" s="37">
+        <v>0</v>
+      </c>
+      <c r="M21" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H22" s="37">
+        <v>0</v>
+      </c>
+      <c r="I22" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="K22" s="37">
+        <v>0</v>
+      </c>
+      <c r="L22" s="37">
+        <v>0</v>
+      </c>
+      <c r="M22" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" s="37">
+        <v>0</v>
+      </c>
+      <c r="I23" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" s="37">
+        <v>0</v>
+      </c>
+      <c r="L23" s="37">
+        <v>0</v>
+      </c>
+      <c r="M23" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>7</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H24" s="37">
+        <v>0</v>
+      </c>
+      <c r="I24" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="K24" s="37">
+        <v>0</v>
+      </c>
+      <c r="L24" s="37">
+        <v>0</v>
+      </c>
+      <c r="M24" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>9</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H25" s="37">
+        <v>0</v>
+      </c>
+      <c r="I25" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J25" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25" s="37">
+        <v>0</v>
+      </c>
+      <c r="L25" s="37">
+        <v>0</v>
+      </c>
+      <c r="M25" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>23</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H26" s="37">
+        <v>0</v>
+      </c>
+      <c r="I26" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J26" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="K26" s="37">
+        <v>0</v>
+      </c>
+      <c r="L26" s="37">
+        <v>0</v>
+      </c>
+      <c r="M26" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <v>24</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H27" s="37">
+        <v>0</v>
+      </c>
+      <c r="I27" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="J27" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" s="37">
+        <v>0</v>
+      </c>
+      <c r="L27" s="37">
+        <v>0</v>
+      </c>
+      <c r="M27" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>46</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="H28" s="37">
+        <v>1</v>
+      </c>
+      <c r="I28" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J28" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="K28" s="37">
+        <v>1</v>
+      </c>
+      <c r="L28" s="37">
+        <v>0</v>
+      </c>
+      <c r="M28" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
+        <v>47</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="H29" s="37">
+        <v>1</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J29" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="K29" s="37">
+        <v>1</v>
+      </c>
+      <c r="L29" s="37">
+        <v>0</v>
+      </c>
+      <c r="M29" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <v>48</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="H30" s="37">
+        <v>1</v>
+      </c>
+      <c r="I30" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J30" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="K30" s="37">
+        <v>1</v>
+      </c>
+      <c r="L30" s="37">
+        <v>0</v>
+      </c>
+      <c r="M30" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>49</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="H31" s="37">
+        <v>1</v>
+      </c>
+      <c r="I31" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J31" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="K31" s="37">
+        <v>1</v>
+      </c>
+      <c r="L31" s="37">
+        <v>0</v>
+      </c>
+      <c r="M31" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>27</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="37">
+        <v>0</v>
+      </c>
+      <c r="I32" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J32" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="K32" s="37">
+        <v>0</v>
+      </c>
+      <c r="L32" s="37">
+        <v>0</v>
+      </c>
+      <c r="M32" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <v>28</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="37">
+        <v>0</v>
+      </c>
+      <c r="I33" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J33" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="K33" s="37">
+        <v>0</v>
+      </c>
+      <c r="L33" s="37">
+        <v>0</v>
+      </c>
+      <c r="M33" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <v>29</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="37">
+        <v>0</v>
+      </c>
+      <c r="I34" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J34" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="K34" s="37">
+        <v>0</v>
+      </c>
+      <c r="L34" s="37">
+        <v>0</v>
+      </c>
+      <c r="M34" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <v>30</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35" s="37">
+        <v>0</v>
+      </c>
+      <c r="I35" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J35" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="K35" s="37">
+        <v>0</v>
+      </c>
+      <c r="L35" s="37">
+        <v>0</v>
+      </c>
+      <c r="M35" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <v>31</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="G36" s="37">
+        <v>0</v>
+      </c>
+      <c r="I36" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J36" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="K36" s="37">
+        <v>0</v>
+      </c>
+      <c r="L36" s="37">
+        <v>0</v>
+      </c>
+      <c r="M36" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="10">
+        <v>32</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" s="37">
+        <v>0</v>
+      </c>
+      <c r="I37" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J37" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="K37" s="37">
+        <v>0</v>
+      </c>
+      <c r="L37" s="37">
+        <v>0</v>
+      </c>
+      <c r="M37" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10">
+        <v>25</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H38" s="37">
+        <v>0</v>
+      </c>
+      <c r="I38" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J38" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="K38" s="37">
+        <v>0</v>
+      </c>
+      <c r="L38" s="37">
+        <v>0</v>
+      </c>
+      <c r="M38" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
+        <v>26</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H39" s="37">
+        <v>0</v>
+      </c>
+      <c r="I39" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="J39" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="K39" s="37">
+        <v>0</v>
+      </c>
+      <c r="L39" s="37">
+        <v>0</v>
+      </c>
+      <c r="M39" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
+        <v>37</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="37">
+        <v>0</v>
+      </c>
+      <c r="I40" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J40" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="K40" s="37">
+        <v>0</v>
+      </c>
+      <c r="L40" s="37">
+        <v>0</v>
+      </c>
+      <c r="M40" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
+        <v>38</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="H41" s="37">
+        <v>2</v>
+      </c>
+      <c r="I41" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J41" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="K41" s="37">
+        <v>0</v>
+      </c>
+      <c r="L41" s="37">
+        <v>0</v>
+      </c>
+      <c r="M41" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
+        <v>41</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H42" s="37">
+        <v>0</v>
+      </c>
+      <c r="I42" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J42" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="K42" s="37">
+        <v>0</v>
+      </c>
+      <c r="L42" s="37">
+        <v>0</v>
+      </c>
+      <c r="M42" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
+        <v>42</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H43" s="37">
+        <v>0</v>
+      </c>
+      <c r="I43" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J43" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="K43" s="37">
+        <v>0</v>
+      </c>
+      <c r="L43" s="37">
+        <v>0</v>
+      </c>
+      <c r="M43" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
+        <v>35</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="37">
+        <v>0</v>
+      </c>
+      <c r="J44" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="K44" s="37">
+        <v>0</v>
+      </c>
+      <c r="L44" s="37">
+        <v>0</v>
+      </c>
+      <c r="M44" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
+        <v>33</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="H45" s="37">
+        <v>2</v>
+      </c>
+      <c r="I45" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J45" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="K45" s="37">
+        <v>0</v>
+      </c>
+      <c r="L45" s="37">
+        <v>0</v>
+      </c>
+      <c r="M45" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="10">
+        <v>34</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G46" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="H46" s="37">
+        <v>2</v>
+      </c>
+      <c r="I46" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J46" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="K46" s="37">
+        <v>0</v>
+      </c>
+      <c r="L46" s="37">
+        <v>0</v>
+      </c>
+      <c r="M46" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="10">
+        <v>36</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="H47" s="37">
+        <v>2</v>
+      </c>
+      <c r="J47" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="K47" s="37">
+        <v>0</v>
+      </c>
+      <c r="L47" s="37">
+        <v>0</v>
+      </c>
+      <c r="M47" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="10">
+        <v>14</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H48" s="37">
+        <v>0</v>
+      </c>
+      <c r="I48" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J48" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="K48" s="37">
+        <v>0</v>
+      </c>
+      <c r="L48" s="37">
+        <v>0</v>
+      </c>
+      <c r="M48" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="10">
+        <v>15</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H49" s="37">
+        <v>0</v>
+      </c>
+      <c r="J49" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="K49" s="37">
+        <v>0</v>
+      </c>
+      <c r="L49" s="37">
+        <v>0</v>
+      </c>
+      <c r="M49" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="10">
+        <v>18</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H50" s="37">
+        <v>0</v>
+      </c>
+      <c r="I50" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J50" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="K50" s="37">
+        <v>0</v>
+      </c>
+      <c r="L50" s="37">
+        <v>0</v>
+      </c>
+      <c r="M50" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="10">
+        <v>20</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H51" s="37">
+        <v>0</v>
+      </c>
+      <c r="I51" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J51" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="K51" s="37">
+        <v>0</v>
+      </c>
+      <c r="L51" s="37">
+        <v>0</v>
+      </c>
+      <c r="M51" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
+        <v>2</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H52" s="37">
+        <v>0</v>
+      </c>
+      <c r="I52" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J52" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="K52" s="37">
+        <v>0</v>
+      </c>
+      <c r="L52" s="37">
+        <v>0</v>
+      </c>
+      <c r="M52" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="10">
+        <v>4</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H53" s="37">
+        <v>0</v>
+      </c>
+      <c r="I53" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J53" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="K53" s="37">
+        <v>0</v>
+      </c>
+      <c r="L53" s="37">
+        <v>0</v>
+      </c>
+      <c r="M53" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
+        <v>8</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H54" s="37">
+        <v>0</v>
+      </c>
+      <c r="I54" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J54" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="K54" s="37">
+        <v>0</v>
+      </c>
+      <c r="L54" s="37">
+        <v>0</v>
+      </c>
+      <c r="M54" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="10">
+        <v>10</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H55" s="37">
+        <v>0</v>
+      </c>
+      <c r="I55" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J55" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="K55" s="37">
+        <v>0</v>
+      </c>
+      <c r="L55" s="37">
+        <v>0</v>
+      </c>
+      <c r="M55" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="10">
+        <v>55</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="10">
+        <v>57</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="10">
+        <v>58</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M58" xr:uid="{1CBCCB88-5967-4737-8EE6-61BE5B7108E0}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="000001"/>
+        <filter val="000010"/>
+        <filter val="000011"/>
+        <filter val="000100"/>
+        <filter val="000101"/>
+        <filter val="000110"/>
+        <filter val="000111"/>
+        <filter val="001000"/>
+        <filter val="001001"/>
+        <filter val="001010"/>
+        <filter val="001011"/>
+        <filter val="001100"/>
+        <filter val="001101"/>
+        <filter val="001110"/>
+        <filter val="001111"/>
+        <filter val="011000"/>
+        <filter val="100000"/>
+        <filter val="100001"/>
+        <filter val="100010"/>
+        <filter val="100011"/>
+        <filter val="100100"/>
+        <filter val="100101"/>
+        <filter val="100110"/>
+        <filter val="101000"/>
+        <filter val="101001"/>
+        <filter val="101010"/>
+        <filter val="101011"/>
+        <filter val="101110"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M58">
+    <sortCondition ref="B1:B58"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D34:D35">
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:D46">
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44:C47">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="uniqueValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>